--- a/Ecuador/Boletín/Medios/autores_integracion_ecuador.xlsx
+++ b/Ecuador/Boletín/Medios/autores_integracion_ecuador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Desktop\Trabajo\BX\Ecuador\Boletín\Medios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E984CB8-0B72-4B90-AB92-25A8E91DC0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B356A9-21BA-4AF5-A47D-6A57252D28CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="3420" windowWidth="16245" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Integración</t>
   </si>
   <si>
+    <t>ecuabot</t>
+  </si>
+  <si>
     <t>acnurecuador</t>
   </si>
   <si>
+    <t>gkecuador</t>
+  </si>
+  <si>
+    <t>moviliderec</t>
+  </si>
+  <si>
+    <t>diarioextraec</t>
+  </si>
+  <si>
+    <t>ecuadorprensaec</t>
+  </si>
+  <si>
+    <t>ccpidg</t>
+  </si>
+  <si>
+    <t>dialoguemosinfo</t>
+  </si>
+  <si>
+    <t>ecupuntocom</t>
+  </si>
+  <si>
+    <t>eluniversocom</t>
+  </si>
+  <si>
+    <t>onuecuador</t>
+  </si>
+  <si>
+    <t>paoleague</t>
+  </si>
+  <si>
+    <t>goberazuay</t>
+  </si>
+  <si>
+    <t>itsabela</t>
+  </si>
+  <si>
+    <t>onumujeresecu</t>
+  </si>
+  <si>
+    <t>teleamazonasec</t>
+  </si>
+  <si>
+    <t>albo75</t>
+  </si>
+  <si>
     <t>canalrtu</t>
   </si>
   <si>
-    <t>ccpidg</t>
-  </si>
-  <si>
-    <t>dialoguemosinfo</t>
-  </si>
-  <si>
-    <t>onuecuador</t>
+    <t>ccpd_duran</t>
+  </si>
+  <si>
+    <t>cn_igualdad</t>
+  </si>
+  <si>
+    <t>cnimhec</t>
+  </si>
+  <si>
+    <t>complicefm</t>
+  </si>
+  <si>
+    <t>conexnoticiasec</t>
+  </si>
+  <si>
+    <t>deportespu</t>
+  </si>
+  <si>
+    <t>diariocorreoec</t>
+  </si>
+  <si>
+    <t>diariopinion</t>
+  </si>
+  <si>
+    <t>ecuadorenvivo</t>
+  </si>
+  <si>
+    <t>ecuadorwillana</t>
+  </si>
+  <si>
+    <t>ecuafootball</t>
+  </si>
+  <si>
+    <t>ecuavisainforma</t>
+  </si>
+  <si>
+    <t>elmercurioec</t>
+  </si>
+  <si>
+    <t>elnotista_ec</t>
+  </si>
+  <si>
+    <t>expresoec</t>
+  </si>
+  <si>
+    <t>golecuador</t>
+  </si>
+  <si>
+    <t>idolopasionweb</t>
+  </si>
+  <si>
+    <t>kch_fm</t>
+  </si>
+  <si>
+    <t>lahistoriaec</t>
+  </si>
+  <si>
+    <t>metroecuador</t>
+  </si>
+  <si>
+    <t>notimundoec</t>
+  </si>
+  <si>
+    <t>pichinchauniver</t>
+  </si>
+  <si>
+    <t>portalxvcom</t>
+  </si>
+  <si>
+    <t>primicias</t>
+  </si>
+  <si>
+    <t>quenoticiasec</t>
+  </si>
+  <si>
+    <t>radio_pichincha</t>
+  </si>
+  <si>
+    <t>radioactiva_ec</t>
+  </si>
+  <si>
+    <t>radiodistritofm</t>
+  </si>
+  <si>
+    <t>radiohcjb</t>
+  </si>
+  <si>
+    <t>radiolacalle</t>
+  </si>
+  <si>
+    <t>somosyachaytech</t>
+  </si>
+  <si>
+    <t>udlachannelec</t>
+  </si>
+  <si>
+    <t>unpguayas_</t>
   </si>
   <si>
     <t>Author</t>
@@ -416,17 +554,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -437,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -461,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,6 +610,374 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
         <v>1</v>
       </c>
     </row>

--- a/Ecuador/Boletín/Medios/autores_integracion_ecuador.xlsx
+++ b/Ecuador/Boletín/Medios/autores_integracion_ecuador.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Desktop\Trabajo\BX\Ecuador\Boletín\Medios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B356A9-21BA-4AF5-A47D-6A57252D28CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A4AFD3-1CF3-49D3-A946-5489AF71351A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$36</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Integración</t>
   </si>
@@ -28,9 +31,6 @@
     <t>ecuabot</t>
   </si>
   <si>
-    <t>acnurecuador</t>
-  </si>
-  <si>
     <t>gkecuador</t>
   </si>
   <si>
@@ -43,9 +43,6 @@
     <t>ecuadorprensaec</t>
   </si>
   <si>
-    <t>ccpidg</t>
-  </si>
-  <si>
     <t>dialoguemosinfo</t>
   </si>
   <si>
@@ -55,48 +52,21 @@
     <t>eluniversocom</t>
   </si>
   <si>
-    <t>onuecuador</t>
-  </si>
-  <si>
     <t>paoleague</t>
   </si>
   <si>
-    <t>goberazuay</t>
-  </si>
-  <si>
-    <t>itsabela</t>
-  </si>
-  <si>
-    <t>onumujeresecu</t>
-  </si>
-  <si>
     <t>teleamazonasec</t>
   </si>
   <si>
     <t>albo75</t>
   </si>
   <si>
-    <t>canalrtu</t>
-  </si>
-  <si>
-    <t>ccpd_duran</t>
-  </si>
-  <si>
-    <t>cn_igualdad</t>
-  </si>
-  <si>
-    <t>cnimhec</t>
-  </si>
-  <si>
     <t>complicefm</t>
   </si>
   <si>
     <t>conexnoticiasec</t>
   </si>
   <si>
-    <t>deportespu</t>
-  </si>
-  <si>
     <t>diariocorreoec</t>
   </si>
   <si>
@@ -118,9 +88,6 @@
     <t>elmercurioec</t>
   </si>
   <si>
-    <t>elnotista_ec</t>
-  </si>
-  <si>
     <t>expresoec</t>
   </si>
   <si>
@@ -130,9 +97,6 @@
     <t>idolopasionweb</t>
   </si>
   <si>
-    <t>kch_fm</t>
-  </si>
-  <si>
     <t>lahistoriaec</t>
   </si>
   <si>
@@ -142,9 +106,6 @@
     <t>notimundoec</t>
   </si>
   <si>
-    <t>pichinchauniver</t>
-  </si>
-  <si>
     <t>portalxvcom</t>
   </si>
   <si>
@@ -163,19 +124,13 @@
     <t>radiodistritofm</t>
   </si>
   <si>
-    <t>radiohcjb</t>
-  </si>
-  <si>
     <t>radiolacalle</t>
   </si>
   <si>
-    <t>somosyachaytech</t>
+    <t>tomebamba</t>
   </si>
   <si>
     <t>udlachannelec</t>
-  </si>
-  <si>
-    <t>unpguayas_</t>
   </si>
   <si>
     <t>Author</t>
@@ -554,20 +509,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="M3" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -586,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -658,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -666,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -698,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,134 +802,6 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52">
         <v>1</v>
       </c>
     </row>
